--- a/trunk/Diag. Paretto.xlsx
+++ b/trunk/Diag. Paretto.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="18855" windowHeight="8445" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="18855" windowHeight="8445"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -22,21 +22,6 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="17">
   <si>
     <t>●</t>
-  </si>
-  <si>
-    <t>SPATTER IP TUERCA    Fecha: 05/04/2010</t>
-  </si>
-  <si>
-    <t>SPATTER IP TUERCA    Fecha: 09/04/2010</t>
-  </si>
-  <si>
-    <t>SPATTER IP TUERCA    Fecha: 08/04/2010</t>
-  </si>
-  <si>
-    <t>SPATTER IP TUERCA    Fecha: 07/04/2010</t>
-  </si>
-  <si>
-    <t>SPATTER IP TUERCA     Fecha: 06/04/2010</t>
   </si>
   <si>
     <t>Total</t>
@@ -70,6 +55,21 @@
   </si>
   <si>
     <t>F. ACUMULADA</t>
+  </si>
+  <si>
+    <t>SPATTER IP TUERCA    Fecha: 01/06/2009</t>
+  </si>
+  <si>
+    <t>SPATTER IP TUERCA    Fecha: 05/06/2009</t>
+  </si>
+  <si>
+    <t>SPATTER IP TUERCA    Fecha: 04/06/2009</t>
+  </si>
+  <si>
+    <t>SPATTER IP TUERCA    Fecha: 03/06/2009</t>
+  </si>
+  <si>
+    <t>SPATTER IP TUERCA     Fecha: 02/06/2009</t>
   </si>
 </sst>
 </file>
@@ -206,6 +206,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -217,9 +220,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2524,9 +2524,6 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:v>Frecuencia</c:v>
-          </c:tx>
           <c:cat>
             <c:strRef>
               <c:f>'Diag. Paretto'!$B$3:$B$13</c:f>
@@ -2612,17 +2609,14 @@
           </c:val>
         </c:ser>
         <c:overlap val="100"/>
-        <c:axId val="76592640"/>
-        <c:axId val="76594176"/>
+        <c:axId val="128005248"/>
+        <c:axId val="128007552"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="stacked"/>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
-          <c:tx>
-            <c:v>Frecuencia Acumulada</c:v>
-          </c:tx>
           <c:cat>
             <c:strRef>
               <c:f>'Diag. Paretto'!$B$3:$B$13</c:f>
@@ -2708,11 +2702,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="136782208"/>
-        <c:axId val="134866816"/>
+        <c:axId val="128035840"/>
+        <c:axId val="128034304"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="76592640"/>
+        <c:axId val="128005248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2736,14 +2730,14 @@
           <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="76594176"/>
+        <c:crossAx val="128007552"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="76594176"/>
+        <c:axId val="128007552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2769,31 +2763,32 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="76592640"/>
+        <c:crossAx val="128005248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="134866816"/>
+        <c:axId val="128034304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="r"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="136782208"/>
+        <c:crossAx val="128035840"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="136782208"/>
+        <c:axId val="128035840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="b"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="134866816"/>
+        <c:crossAx val="128034304"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -2808,7 +2803,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup orientation="portrait"/>
   </c:printSettings>
 </c:chartSpace>
@@ -3360,8 +3355,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L2" sqref="L2:L19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -3370,19 +3365,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="20.25" thickBot="1">
-      <c r="A1" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
+      <c r="A1" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
     </row>
     <row r="2" spans="1:11" ht="15.75" thickTop="1">
       <c r="A2" s="3">
@@ -3750,25 +3745,25 @@
   <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L2" sqref="L2:L19"/>
+      <selection sqref="A1:K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:11" ht="20.25" thickBot="1">
-      <c r="A1" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
+      <c r="A1" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
     </row>
     <row r="2" spans="1:11" ht="15.75" thickTop="1">
       <c r="A2" s="3">
@@ -4125,25 +4120,25 @@
   <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L2" sqref="L2:L19"/>
+      <selection sqref="A1:K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:11" ht="20.25" thickBot="1">
-      <c r="A1" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
+      <c r="A1" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
     </row>
     <row r="2" spans="1:11" ht="15.75" thickTop="1">
       <c r="A2" s="3">
@@ -4546,25 +4541,25 @@
   <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L2" sqref="L2:L19"/>
+      <selection sqref="A1:K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:11" ht="20.25" thickBot="1">
-      <c r="A1" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
+      <c r="A1" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
     </row>
     <row r="2" spans="1:11" ht="15.75" thickTop="1">
       <c r="A2" s="3">
@@ -4957,25 +4952,25 @@
   <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L2" sqref="L2:L19"/>
+      <selection sqref="A1:K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:11" ht="20.25" thickBot="1">
-      <c r="A1" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
+      <c r="A1" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
     </row>
     <row r="2" spans="1:11" ht="15.75" thickTop="1">
       <c r="A2" s="6">
@@ -5349,7 +5344,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:F18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
@@ -5361,23 +5356,23 @@
   <sheetData>
     <row r="1" spans="2:4">
       <c r="C1" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="2:4">
       <c r="B2" s="10" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="2:4">
       <c r="B3" s="11" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C3" s="2">
         <f>Hoja1!B19+Hoja2!B19+Hoja3!B19+Hoja4!B19+Hoja5!B19</f>
@@ -5390,7 +5385,7 @@
     </row>
     <row r="4" spans="2:4">
       <c r="B4" s="11" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C4" s="2">
         <f>Hoja1!C19+Hoja2!C19+Hoja3!C19+Hoja4!C19+Hoja5!C19</f>
@@ -5429,7 +5424,7 @@
     </row>
     <row r="7" spans="2:4">
       <c r="B7" s="11" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C7" s="2">
         <f>Hoja1!E19+Hoja2!E19+Hoja3!E19+Hoja4!E19+Hoja5!E19</f>
@@ -5442,7 +5437,7 @@
     </row>
     <row r="8" spans="2:4">
       <c r="B8" s="11" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C8" s="2">
         <f>Hoja1!F19+Hoja2!F19+Hoja3!F19+Hoja4!F19+Hoja5!F19</f>
@@ -5455,7 +5450,7 @@
     </row>
     <row r="9" spans="2:4">
       <c r="B9" s="11" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C9" s="2">
         <f>Hoja1!J19+Hoja2!J19+Hoja3!J19+Hoja4!J19+Hoja5!J19</f>
@@ -5494,7 +5489,7 @@
     </row>
     <row r="12" spans="2:4">
       <c r="B12" s="11" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C12" s="2">
         <f>Hoja1!I19+Hoja2!I19+Hoja3!I19+Hoja4!I19+Hoja5!I19</f>
@@ -5520,7 +5515,7 @@
     </row>
     <row r="14" spans="2:4">
       <c r="B14" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C14">
         <f>SUM(C3:C13)</f>
@@ -5528,7 +5523,7 @@
       </c>
     </row>
     <row r="18" spans="6:6">
-      <c r="F18" s="16"/>
+      <c r="F18" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
